--- a/SCT__Excel&SQL_test.xlsx
+++ b/SCT__Excel&SQL_test.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89501553-5B58-564C-8B7C-68F67621F49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5030CE1A-A33D-4840-A839-B141BEE5D9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="1940" windowWidth="30400" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1800" windowWidth="30400" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Product_revenue" sheetId="1" r:id="rId1"/>
+    <sheet name="Product_Sale" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="289">
   <si>
     <t>Product229</t>
   </si>
@@ -880,20 +880,23 @@
 Technical Test-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Q1:Calculate Total Sales: Create a formula to calculate the Total Sales for each product, place the result in E3 column for all products - اكتبي معادلة حسابية  لحساب مبلغ البيع الكلي لكل منتج، ضعي الناتج هذا في عمود E3
+    <t xml:space="preserve">Q3- SQL Answer: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2- Answer:  Summary Table: </t>
+  </si>
+  <si>
+    <t>Q3: Write an SQL query to find all products where the number of units sold is greater than 300. ( place your answer bellow)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1:Calculate Total Sales: Create a formula to calculate the Total Sales for each product, place the result in E column( Total Sale ) - اكتبي معادلة حسابية  لحساب مبلغ البيع الكلي لكل منتج، ضعي الناتج هذا في عمود E
 </t>
   </si>
   <si>
-    <t>Q2: Using an Excel function, calculate the Total Revenue for each category (e.g., Electronics, Furniture, Clothing). Place these calculations in a summary table below the dataset. إجمالي الإيرادات حسب الفئة: باستخدام دالة في Excel، احسب إجمالي الإيرادات لكل فئة (مثل: الإلكترونيات، الأثاث، الملابس). ضع هذه الحسابات في جدول ملخص أسفل بالاسفل.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3- SQL Answer: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2- Answer:  Summary Table: </t>
-  </si>
-  <si>
-    <t>Q3: Write an SQL query to find all products where the number of units sold is greater than 300. ( place your answer bellow)</t>
+    <t>Q2: Using an Excel function, calculate the Total Sale for each category (e.g., Electronics, Furniture, Clothing). Place these calculations in a summary table below the dataset. إجمالي الإيرادات حسب الفئة: باستخدام دالة في Excel، احسب إجمالي الإيرادات لكل فئة (مثل: الإلكترونيات، الأثاث، الملابس). ضع هذه الحسابات في جدول ملخص أسفل بالاسفل.</t>
+  </si>
+  <si>
+    <t>Table Name: Product_Sale</t>
   </si>
 </sst>
 </file>
@@ -951,7 +954,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -961,6 +964,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1032,13 +1041,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1322,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X505"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1347,7 +1359,7 @@
     </row>
     <row r="2" spans="1:24" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -1362,7 +1374,7 @@
     </row>
     <row r="3" spans="1:24" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -1389,18 +1401,23 @@
       <c r="X3" s="13"/>
     </row>
     <row r="4" spans="1:24" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="A4" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:24" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="6" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
@@ -2189,7 +2206,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2252,7 +2269,7 @@
     </row>
     <row r="63" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>

--- a/SCT__Excel&SQL_test.xlsx
+++ b/SCT__Excel&SQL_test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5030CE1A-A33D-4840-A839-B141BEE5D9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1800" windowWidth="30400" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1800" windowWidth="30405" windowHeight="14985"/>
   </bookViews>
   <sheets>
     <sheet name="Product_Sale" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -902,7 +901,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
@@ -1021,10 +1020,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1049,7 +1048,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1331,24 +1330,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X505"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A68" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="24" max="24" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="14" t="s">
         <v>282</v>
@@ -1357,7 +1356,7 @@
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
     </row>
-    <row r="2" spans="1:24" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>286</v>
       </c>
@@ -1372,7 +1371,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:24" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>287</v>
       </c>
@@ -1400,7 +1399,7 @@
       <c r="W3" s="13"/>
       <c r="X3" s="13"/>
     </row>
-    <row r="4" spans="1:24" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>285</v>
       </c>
@@ -1414,12 +1413,12 @@
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:24" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:24" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>272</v>
       </c>
@@ -1436,7 +1435,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>1</v>
       </c>
@@ -1449,11 +1448,11 @@
       <c r="D7" s="4">
         <v>22</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2</v>
       </c>
@@ -1466,11 +1465,11 @@
       <c r="D8" s="4">
         <v>23</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>3</v>
       </c>
@@ -1483,11 +1482,11 @@
       <c r="D9" s="4">
         <v>33</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>4</v>
       </c>
@@ -1500,11 +1499,11 @@
       <c r="D10" s="4">
         <v>21</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>5</v>
       </c>
@@ -1517,11 +1516,11 @@
       <c r="D11" s="4">
         <v>22</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -1534,11 +1533,11 @@
       <c r="D12" s="4">
         <v>31</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>7</v>
       </c>
@@ -1551,11 +1550,11 @@
       <c r="D13" s="4">
         <v>22</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>8</v>
       </c>
@@ -1568,11 +1567,11 @@
       <c r="D14" s="4">
         <v>3</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>9</v>
       </c>
@@ -1585,11 +1584,11 @@
       <c r="D15" s="4">
         <v>31</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>10</v>
       </c>
@@ -1602,11 +1601,11 @@
       <c r="D16" s="4">
         <v>2</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>11</v>
       </c>
@@ -1619,11 +1618,11 @@
       <c r="D17" s="4">
         <v>31</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>12</v>
       </c>
@@ -1636,11 +1635,11 @@
       <c r="D18" s="4">
         <v>6</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>13</v>
       </c>
@@ -1653,11 +1652,11 @@
       <c r="D19" s="4">
         <v>5</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>14</v>
       </c>
@@ -1670,11 +1669,11 @@
       <c r="D20" s="4">
         <v>75</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>15</v>
       </c>
@@ -1687,11 +1686,11 @@
       <c r="D21" s="4">
         <v>56</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>16</v>
       </c>
@@ -1704,11 +1703,11 @@
       <c r="D22" s="4">
         <v>66</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>17</v>
       </c>
@@ -1721,11 +1720,11 @@
       <c r="D23" s="4">
         <v>10</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>18</v>
       </c>
@@ -1738,11 +1737,11 @@
       <c r="D24" s="4">
         <v>23</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>19</v>
       </c>
@@ -1755,11 +1754,11 @@
       <c r="D25" s="4">
         <v>23</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>20</v>
       </c>
@@ -1772,11 +1771,11 @@
       <c r="D26" s="4">
         <v>23</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>21</v>
       </c>
@@ -1789,11 +1788,11 @@
       <c r="D27" s="4">
         <v>2</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>22</v>
       </c>
@@ -1806,11 +1805,11 @@
       <c r="D28" s="4">
         <v>12</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>23</v>
       </c>
@@ -1823,11 +1822,11 @@
       <c r="D29" s="4">
         <v>12</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>24</v>
       </c>
@@ -1840,11 +1839,11 @@
       <c r="D30" s="4">
         <v>12</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>25</v>
       </c>
@@ -1857,11 +1856,11 @@
       <c r="D31" s="4">
         <v>13</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>26</v>
       </c>
@@ -1874,11 +1873,11 @@
       <c r="D32" s="4">
         <v>24</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>27</v>
       </c>
@@ -1891,11 +1890,11 @@
       <c r="D33" s="4">
         <v>12</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>28</v>
       </c>
@@ -1908,11 +1907,11 @@
       <c r="D34" s="4">
         <v>55</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>29</v>
       </c>
@@ -1925,11 +1924,11 @@
       <c r="D35" s="4">
         <v>23</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>30</v>
       </c>
@@ -1942,11 +1941,11 @@
       <c r="D36" s="4">
         <v>24</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>31</v>
       </c>
@@ -1959,11 +1958,11 @@
       <c r="D37" s="4">
         <v>23</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>32</v>
       </c>
@@ -1976,11 +1975,11 @@
       <c r="D38" s="4">
         <v>23</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>33</v>
       </c>
@@ -1993,11 +1992,11 @@
       <c r="D39" s="4">
         <v>24</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>34</v>
       </c>
@@ -2010,11 +2009,11 @@
       <c r="D40" s="4">
         <v>23</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>35</v>
       </c>
@@ -2027,11 +2026,11 @@
       <c r="D41" s="4">
         <v>53</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>36</v>
       </c>
@@ -2044,11 +2043,11 @@
       <c r="D42" s="4">
         <v>2</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>37</v>
       </c>
@@ -2061,11 +2060,11 @@
       <c r="D43" s="4">
         <v>22</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>38</v>
       </c>
@@ -2078,11 +2077,11 @@
       <c r="D44" s="4">
         <v>12</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E44" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>39</v>
       </c>
@@ -2095,11 +2094,11 @@
       <c r="D45" s="4">
         <v>21</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E45" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>40</v>
       </c>
@@ -2112,11 +2111,11 @@
       <c r="D46" s="4">
         <v>21</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E46" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>41</v>
       </c>
@@ -2129,11 +2128,11 @@
       <c r="D47" s="4">
         <v>12</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>42</v>
       </c>
@@ -2146,11 +2145,11 @@
       <c r="D48" s="4">
         <v>12</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>43</v>
       </c>
@@ -2163,11 +2162,11 @@
       <c r="D49" s="4">
         <v>31</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>44</v>
       </c>
@@ -2180,31 +2179,31 @@
       <c r="D50" s="4">
         <v>33</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="19" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>284</v>
       </c>
@@ -2212,7 +2211,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>273</v>
       </c>
@@ -2222,52 +2221,61 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C57" s="1"/>
+      <c r="C57" s="1" t="str">
+        <f>IF(B57="?", "",IF(B57=107278,"✅","❌"))</f>
+        <v/>
+      </c>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C58" s="1"/>
+      <c r="C58" s="1" t="str">
+        <f>IF(B58="?", "",IF(B58=104252,"✅","❌"))</f>
+        <v/>
+      </c>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C59" s="1"/>
+      <c r="C59" s="1" t="str">
+        <f>IF(B59="?", "",IF(B59=53868,"✅","❌"))</f>
+        <v/>
+      </c>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:5" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
         <v>283</v>
       </c>
@@ -2276,857 +2284,857 @@
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>0</v>
       </c>
@@ -3136,7 +3144,7 @@
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1</v>
       </c>
@@ -3146,7 +3154,7 @@
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>2</v>
       </c>
@@ -3156,7 +3164,7 @@
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>3</v>
       </c>
@@ -3166,7 +3174,7 @@
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>4</v>
       </c>
@@ -3176,7 +3184,7 @@
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -3186,7 +3194,7 @@
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -3196,7 +3204,7 @@
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -3206,7 +3214,7 @@
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -3216,7 +3224,7 @@
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>9</v>
       </c>
@@ -3226,7 +3234,7 @@
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>10</v>
       </c>
@@ -3236,7 +3244,7 @@
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>11</v>
       </c>
@@ -3246,7 +3254,7 @@
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>12</v>
       </c>
@@ -3256,7 +3264,7 @@
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>13</v>
       </c>
@@ -3266,7 +3274,7 @@
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>14</v>
       </c>
@@ -3276,7 +3284,7 @@
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>15</v>
       </c>
@@ -3286,7 +3294,7 @@
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>16</v>
       </c>
@@ -3296,7 +3304,7 @@
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -3306,7 +3314,7 @@
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>18</v>
       </c>
@@ -3316,7 +3324,7 @@
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>19</v>
       </c>
@@ -3326,7 +3334,7 @@
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>20</v>
       </c>
@@ -3336,7 +3344,7 @@
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>21</v>
       </c>
@@ -3346,7 +3354,7 @@
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>22</v>
       </c>
@@ -3356,7 +3364,7 @@
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>23</v>
       </c>
@@ -3366,7 +3374,7 @@
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>24</v>
       </c>
@@ -3376,7 +3384,7 @@
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>25</v>
       </c>
@@ -3386,7 +3394,7 @@
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>26</v>
       </c>
@@ -3396,7 +3404,7 @@
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>27</v>
       </c>
@@ -3406,7 +3414,7 @@
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>28</v>
       </c>
@@ -3416,7 +3424,7 @@
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>29</v>
       </c>
@@ -3426,7 +3434,7 @@
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>30</v>
       </c>
@@ -3436,7 +3444,7 @@
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>31</v>
       </c>
@@ -3446,7 +3454,7 @@
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>32</v>
       </c>
@@ -3456,7 +3464,7 @@
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>33</v>
       </c>
@@ -3466,7 +3474,7 @@
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>34</v>
       </c>
@@ -3476,7 +3484,7 @@
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>35</v>
       </c>
@@ -3486,7 +3494,7 @@
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>36</v>
       </c>
@@ -3496,7 +3504,7 @@
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>37</v>
       </c>
@@ -3506,7 +3514,7 @@
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>38</v>
       </c>
@@ -3516,7 +3524,7 @@
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>39</v>
       </c>
@@ -3526,7 +3534,7 @@
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>40</v>
       </c>
@@ -3536,7 +3544,7 @@
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>41</v>
       </c>
@@ -3546,7 +3554,7 @@
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>42</v>
       </c>
@@ -3556,7 +3564,7 @@
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>43</v>
       </c>
@@ -3566,7 +3574,7 @@
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>44</v>
       </c>
@@ -3576,7 +3584,7 @@
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>45</v>
       </c>
@@ -3586,7 +3594,7 @@
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>46</v>
       </c>
@@ -3596,7 +3604,7 @@
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>47</v>
       </c>
@@ -3606,7 +3614,7 @@
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>48</v>
       </c>
@@ -3616,7 +3624,7 @@
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>49</v>
       </c>
@@ -3626,7 +3634,7 @@
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>50</v>
       </c>
@@ -3636,7 +3644,7 @@
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>51</v>
       </c>
@@ -3646,7 +3654,7 @@
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>52</v>
       </c>
@@ -3656,7 +3664,7 @@
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>53</v>
       </c>
@@ -3666,7 +3674,7 @@
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>54</v>
       </c>
@@ -3676,7 +3684,7 @@
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>55</v>
       </c>
@@ -3686,7 +3694,7 @@
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>56</v>
       </c>
@@ -3696,7 +3704,7 @@
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>57</v>
       </c>
@@ -3706,7 +3714,7 @@
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>58</v>
       </c>
@@ -3716,7 +3724,7 @@
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>59</v>
       </c>
@@ -3726,7 +3734,7 @@
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>60</v>
       </c>
@@ -3736,7 +3744,7 @@
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>61</v>
       </c>
@@ -3746,7 +3754,7 @@
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>62</v>
       </c>
@@ -3756,7 +3764,7 @@
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>63</v>
       </c>
@@ -3766,7 +3774,7 @@
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>64</v>
       </c>
@@ -3776,7 +3784,7 @@
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>65</v>
       </c>
@@ -3786,7 +3794,7 @@
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>66</v>
       </c>
@@ -3796,7 +3804,7 @@
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>67</v>
       </c>
@@ -3806,7 +3814,7 @@
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>68</v>
       </c>
@@ -3816,7 +3824,7 @@
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>69</v>
       </c>
@@ -3826,7 +3834,7 @@
       <c r="C303" s="1"/>
       <c r="D303" s="1"/>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>70</v>
       </c>
@@ -3836,7 +3844,7 @@
       <c r="C304" s="1"/>
       <c r="D304" s="1"/>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>71</v>
       </c>
@@ -3846,7 +3854,7 @@
       <c r="C305" s="1"/>
       <c r="D305" s="1"/>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>72</v>
       </c>
@@ -3856,7 +3864,7 @@
       <c r="C306" s="1"/>
       <c r="D306" s="1"/>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>73</v>
       </c>
@@ -3866,7 +3874,7 @@
       <c r="C307" s="1"/>
       <c r="D307" s="1"/>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>74</v>
       </c>
@@ -3876,7 +3884,7 @@
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>75</v>
       </c>
@@ -3886,7 +3894,7 @@
       <c r="C309" s="1"/>
       <c r="D309" s="1"/>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>76</v>
       </c>
@@ -3896,7 +3904,7 @@
       <c r="C310" s="1"/>
       <c r="D310" s="1"/>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>77</v>
       </c>
@@ -3906,7 +3914,7 @@
       <c r="C311" s="1"/>
       <c r="D311" s="1"/>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>78</v>
       </c>
@@ -3916,7 +3924,7 @@
       <c r="C312" s="1"/>
       <c r="D312" s="1"/>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>79</v>
       </c>
@@ -3926,7 +3934,7 @@
       <c r="C313" s="1"/>
       <c r="D313" s="1"/>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>80</v>
       </c>
@@ -3936,7 +3944,7 @@
       <c r="C314" s="1"/>
       <c r="D314" s="1"/>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>81</v>
       </c>
@@ -3946,7 +3954,7 @@
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>82</v>
       </c>
@@ -3956,7 +3964,7 @@
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>83</v>
       </c>
@@ -3966,7 +3974,7 @@
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>84</v>
       </c>
@@ -3976,7 +3984,7 @@
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>85</v>
       </c>
@@ -3986,7 +3994,7 @@
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>86</v>
       </c>
@@ -3996,7 +4004,7 @@
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>87</v>
       </c>
@@ -4006,7 +4014,7 @@
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>88</v>
       </c>
@@ -4016,7 +4024,7 @@
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>89</v>
       </c>
@@ -4026,7 +4034,7 @@
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>90</v>
       </c>
@@ -4036,7 +4044,7 @@
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>91</v>
       </c>
@@ -4046,7 +4054,7 @@
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>92</v>
       </c>
@@ -4056,7 +4064,7 @@
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>93</v>
       </c>
@@ -4066,7 +4074,7 @@
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>94</v>
       </c>
@@ -4076,7 +4084,7 @@
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>95</v>
       </c>
@@ -4086,7 +4094,7 @@
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>96</v>
       </c>
@@ -4096,7 +4104,7 @@
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>97</v>
       </c>
@@ -4106,7 +4114,7 @@
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>98</v>
       </c>
@@ -4116,7 +4124,7 @@
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>99</v>
       </c>
@@ -4126,7 +4134,7 @@
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>100</v>
       </c>
@@ -4136,7 +4144,7 @@
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>101</v>
       </c>
@@ -4146,7 +4154,7 @@
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>102</v>
       </c>
@@ -4156,7 +4164,7 @@
       <c r="C336" s="1"/>
       <c r="D336" s="1"/>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>103</v>
       </c>
@@ -4166,7 +4174,7 @@
       <c r="C337" s="1"/>
       <c r="D337" s="1"/>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>104</v>
       </c>
@@ -4176,7 +4184,7 @@
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>105</v>
       </c>
@@ -4186,7 +4194,7 @@
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>106</v>
       </c>
@@ -4196,7 +4204,7 @@
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>107</v>
       </c>
@@ -4206,7 +4214,7 @@
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>108</v>
       </c>
@@ -4216,7 +4224,7 @@
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>109</v>
       </c>
@@ -4226,7 +4234,7 @@
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>110</v>
       </c>
@@ -4236,7 +4244,7 @@
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>111</v>
       </c>
@@ -4246,7 +4254,7 @@
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>112</v>
       </c>
@@ -4256,7 +4264,7 @@
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>113</v>
       </c>
@@ -4266,7 +4274,7 @@
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>114</v>
       </c>
@@ -4276,7 +4284,7 @@
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>115</v>
       </c>
@@ -4286,7 +4294,7 @@
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>116</v>
       </c>
@@ -4296,7 +4304,7 @@
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>117</v>
       </c>
@@ -4306,7 +4314,7 @@
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>118</v>
       </c>
@@ -4316,7 +4324,7 @@
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>119</v>
       </c>
@@ -4326,7 +4334,7 @@
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>120</v>
       </c>
@@ -4336,7 +4344,7 @@
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>121</v>
       </c>
@@ -4346,7 +4354,7 @@
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>122</v>
       </c>
@@ -4356,7 +4364,7 @@
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>123</v>
       </c>
@@ -4366,7 +4374,7 @@
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>124</v>
       </c>
@@ -4376,7 +4384,7 @@
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>125</v>
       </c>
@@ -4386,7 +4394,7 @@
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>126</v>
       </c>
@@ -4396,7 +4404,7 @@
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>127</v>
       </c>
@@ -4406,7 +4414,7 @@
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>128</v>
       </c>
@@ -4416,7 +4424,7 @@
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>129</v>
       </c>
@@ -4426,7 +4434,7 @@
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>130</v>
       </c>
@@ -4436,7 +4444,7 @@
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>131</v>
       </c>
@@ -4446,7 +4454,7 @@
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>132</v>
       </c>
@@ -4456,7 +4464,7 @@
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>133</v>
       </c>
@@ -4466,7 +4474,7 @@
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>134</v>
       </c>
@@ -4476,7 +4484,7 @@
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>135</v>
       </c>
@@ -4486,7 +4494,7 @@
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>136</v>
       </c>
@@ -4496,7 +4504,7 @@
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>137</v>
       </c>
@@ -4506,7 +4514,7 @@
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>138</v>
       </c>
@@ -4516,7 +4524,7 @@
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>139</v>
       </c>
@@ -4526,7 +4534,7 @@
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>140</v>
       </c>
@@ -4536,7 +4544,7 @@
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>141</v>
       </c>
@@ -4546,7 +4554,7 @@
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>142</v>
       </c>
@@ -4556,7 +4564,7 @@
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>143</v>
       </c>
@@ -4566,7 +4574,7 @@
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>144</v>
       </c>
@@ -4576,7 +4584,7 @@
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>145</v>
       </c>
@@ -4586,7 +4594,7 @@
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>146</v>
       </c>
@@ -4596,7 +4604,7 @@
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>147</v>
       </c>
@@ -4606,7 +4614,7 @@
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>148</v>
       </c>
@@ -4616,7 +4624,7 @@
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>149</v>
       </c>
@@ -4626,7 +4634,7 @@
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>150</v>
       </c>
@@ -4636,7 +4644,7 @@
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>151</v>
       </c>
@@ -4646,7 +4654,7 @@
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>152</v>
       </c>
@@ -4656,7 +4664,7 @@
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>153</v>
       </c>
@@ -4666,7 +4674,7 @@
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>154</v>
       </c>
@@ -4676,7 +4684,7 @@
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>155</v>
       </c>
@@ -4686,7 +4694,7 @@
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>156</v>
       </c>
@@ -4696,7 +4704,7 @@
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>157</v>
       </c>
@@ -4706,7 +4714,7 @@
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>158</v>
       </c>
@@ -4716,7 +4724,7 @@
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>159</v>
       </c>
@@ -4726,7 +4734,7 @@
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>160</v>
       </c>
@@ -4736,7 +4744,7 @@
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>161</v>
       </c>
@@ -4746,7 +4754,7 @@
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>162</v>
       </c>
@@ -4756,7 +4764,7 @@
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>163</v>
       </c>
@@ -4766,7 +4774,7 @@
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>164</v>
       </c>
@@ -4776,7 +4784,7 @@
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>165</v>
       </c>
@@ -4786,7 +4794,7 @@
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>166</v>
       </c>
@@ -4796,7 +4804,7 @@
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>167</v>
       </c>
@@ -4806,7 +4814,7 @@
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>168</v>
       </c>
@@ -4816,7 +4824,7 @@
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>169</v>
       </c>
@@ -4826,7 +4834,7 @@
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>170</v>
       </c>
@@ -4836,7 +4844,7 @@
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>171</v>
       </c>
@@ -4846,7 +4854,7 @@
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>172</v>
       </c>
@@ -4856,7 +4864,7 @@
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>173</v>
       </c>
@@ -4866,7 +4874,7 @@
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>174</v>
       </c>
@@ -4876,7 +4884,7 @@
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>175</v>
       </c>
@@ -4886,7 +4894,7 @@
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>176</v>
       </c>
@@ -4896,7 +4904,7 @@
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>177</v>
       </c>
@@ -4906,7 +4914,7 @@
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>178</v>
       </c>
@@ -4916,7 +4924,7 @@
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>179</v>
       </c>
@@ -4926,7 +4934,7 @@
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>180</v>
       </c>
@@ -4936,7 +4944,7 @@
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>181</v>
       </c>
@@ -4946,7 +4954,7 @@
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>182</v>
       </c>
@@ -4956,7 +4964,7 @@
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>183</v>
       </c>
@@ -4966,7 +4974,7 @@
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>184</v>
       </c>
@@ -4976,7 +4984,7 @@
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>185</v>
       </c>
@@ -4986,7 +4994,7 @@
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>186</v>
       </c>
@@ -4996,7 +5004,7 @@
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>187</v>
       </c>
@@ -5006,7 +5014,7 @@
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>188</v>
       </c>
@@ -5016,7 +5024,7 @@
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>189</v>
       </c>
@@ -5026,7 +5034,7 @@
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>190</v>
       </c>
@@ -5036,7 +5044,7 @@
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>191</v>
       </c>
@@ -5046,7 +5054,7 @@
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>192</v>
       </c>
@@ -5056,7 +5064,7 @@
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>193</v>
       </c>
@@ -5066,7 +5074,7 @@
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>194</v>
       </c>
@@ -5076,7 +5084,7 @@
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>195</v>
       </c>
@@ -5086,7 +5094,7 @@
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>196</v>
       </c>
@@ -5096,7 +5104,7 @@
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>197</v>
       </c>
@@ -5106,7 +5114,7 @@
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>198</v>
       </c>
@@ -5116,7 +5124,7 @@
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>199</v>
       </c>
@@ -5126,7 +5134,7 @@
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>200</v>
       </c>
@@ -5136,7 +5144,7 @@
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>201</v>
       </c>
@@ -5146,7 +5154,7 @@
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>202</v>
       </c>
@@ -5156,7 +5164,7 @@
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>203</v>
       </c>
@@ -5166,7 +5174,7 @@
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>204</v>
       </c>
@@ -5176,7 +5184,7 @@
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>205</v>
       </c>
@@ -5186,7 +5194,7 @@
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>206</v>
       </c>
@@ -5196,7 +5204,7 @@
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>207</v>
       </c>
@@ -5206,7 +5214,7 @@
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>208</v>
       </c>
@@ -5216,7 +5224,7 @@
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>209</v>
       </c>
@@ -5226,7 +5234,7 @@
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>210</v>
       </c>
@@ -5236,7 +5244,7 @@
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>211</v>
       </c>
@@ -5246,7 +5254,7 @@
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>212</v>
       </c>
@@ -5256,7 +5264,7 @@
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>213</v>
       </c>
@@ -5266,7 +5274,7 @@
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>214</v>
       </c>
@@ -5276,7 +5284,7 @@
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>215</v>
       </c>
@@ -5286,7 +5294,7 @@
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>216</v>
       </c>
@@ -5296,7 +5304,7 @@
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>217</v>
       </c>
@@ -5306,7 +5314,7 @@
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>218</v>
       </c>
@@ -5316,7 +5324,7 @@
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>219</v>
       </c>
@@ -5326,7 +5334,7 @@
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>220</v>
       </c>
@@ -5336,7 +5344,7 @@
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>221</v>
       </c>
@@ -5346,7 +5354,7 @@
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>222</v>
       </c>
@@ -5356,7 +5364,7 @@
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>223</v>
       </c>
@@ -5366,7 +5374,7 @@
       <c r="C457" s="1"/>
       <c r="D457" s="1"/>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>224</v>
       </c>
@@ -5376,7 +5384,7 @@
       <c r="C458" s="1"/>
       <c r="D458" s="1"/>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>225</v>
       </c>
@@ -5386,7 +5394,7 @@
       <c r="C459" s="1"/>
       <c r="D459" s="1"/>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>226</v>
       </c>
@@ -5396,7 +5404,7 @@
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>227</v>
       </c>
@@ -5406,7 +5414,7 @@
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>228</v>
       </c>
@@ -5416,7 +5424,7 @@
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>229</v>
       </c>
@@ -5426,7 +5434,7 @@
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>230</v>
       </c>
@@ -5436,7 +5444,7 @@
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>231</v>
       </c>
@@ -5446,7 +5454,7 @@
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>232</v>
       </c>
@@ -5456,7 +5464,7 @@
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>233</v>
       </c>
@@ -5466,7 +5474,7 @@
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>234</v>
       </c>
@@ -5476,7 +5484,7 @@
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>235</v>
       </c>
@@ -5486,7 +5494,7 @@
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>236</v>
       </c>
@@ -5496,7 +5504,7 @@
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>237</v>
       </c>
@@ -5506,7 +5514,7 @@
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>238</v>
       </c>
@@ -5516,7 +5524,7 @@
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>239</v>
       </c>
@@ -5526,7 +5534,7 @@
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>240</v>
       </c>
@@ -5536,7 +5544,7 @@
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>241</v>
       </c>
@@ -5546,7 +5554,7 @@
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>242</v>
       </c>
@@ -5556,7 +5564,7 @@
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>243</v>
       </c>
@@ -5566,7 +5574,7 @@
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>244</v>
       </c>
@@ -5576,7 +5584,7 @@
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>245</v>
       </c>
@@ -5586,7 +5594,7 @@
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>246</v>
       </c>
@@ -5596,7 +5604,7 @@
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>247</v>
       </c>
@@ -5606,7 +5614,7 @@
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>248</v>
       </c>
@@ -5616,7 +5624,7 @@
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>249</v>
       </c>
@@ -5626,7 +5634,7 @@
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>250</v>
       </c>
@@ -5636,7 +5644,7 @@
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>251</v>
       </c>
@@ -5646,7 +5654,7 @@
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>252</v>
       </c>
@@ -5656,7 +5664,7 @@
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>253</v>
       </c>
@@ -5666,7 +5674,7 @@
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>254</v>
       </c>
@@ -5676,7 +5684,7 @@
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>255</v>
       </c>
@@ -5686,7 +5694,7 @@
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>256</v>
       </c>
@@ -5696,7 +5704,7 @@
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>257</v>
       </c>
@@ -5706,7 +5714,7 @@
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>258</v>
       </c>
@@ -5716,7 +5724,7 @@
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>259</v>
       </c>
@@ -5726,7 +5734,7 @@
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>260</v>
       </c>
@@ -5736,7 +5744,7 @@
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>261</v>
       </c>
@@ -5746,7 +5754,7 @@
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>262</v>
       </c>
@@ -5756,7 +5764,7 @@
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>263</v>
       </c>
@@ -5766,7 +5774,7 @@
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>264</v>
       </c>
@@ -5776,7 +5784,7 @@
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>265</v>
       </c>
@@ -5786,7 +5794,7 @@
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>266</v>
       </c>
@@ -5796,7 +5804,7 @@
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>267</v>
       </c>
@@ -5806,7 +5814,7 @@
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>268</v>
       </c>
@@ -5816,7 +5824,7 @@
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>269</v>
       </c>
@@ -5826,7 +5834,7 @@
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>270</v>
       </c>
@@ -5836,7 +5844,7 @@
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>271</v>
       </c>
@@ -5856,7 +5864,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B50 A57:A59" xr:uid="{A4A329CA-3E09-3B4A-A9A1-9CDBF885EFEF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B50 A57:A59">
       <formula1>"Electronics, Furniture, Clothing"</formula1>
     </dataValidation>
   </dataValidations>
